--- a/biology/Botanique/Halimeda/Halimeda.xlsx
+++ b/biology/Botanique/Halimeda/Halimeda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halimeda est un genre d'algues vertes de la famille des Halimedaceae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des algues ayant l'aspect d'un petit chapelet d'écailles coriaces. 
 La structure cellulaire est de type siphonné. L'algue fixe le carbonate de calcium, ce qui lui donne sa rigidité et la rend immangeable pour la plupart des espèces herbivores.
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 octobre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 octobre 2014) :
 Halimeda bikiniensis W.R.Taylor, 1950
 Halimeda borneensis W.R.Taylor, 1975
 Halimeda cereidesmis Kraft, 2007
